--- a/NoteMaps/NAKKA_AKMU.xlsx
+++ b/NoteMaps/NAKKA_AKMU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eogus\source\repos\RhythmGame\NoteMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB0AA70-CE8B-4DD8-A37C-A916401C28E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEBE6C6-2D65-456D-9B05-F5817909C274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FBD1AADC-AD03-4139-A607-30D499883534}"/>
   </bookViews>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597C38B7-F2CF-4951-BED7-7D28309F5979}">
   <dimension ref="A1:G1191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A1033" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F1056" sqref="F1056"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4064,8 +4064,8 @@
       <c r="E160">
         <v>0</v>
       </c>
-      <c r="F160">
-        <v>0</v>
+      <c r="F160" s="1">
+        <v>1</v>
       </c>
       <c r="G160" s="1">
         <v>1</v>
@@ -4159,8 +4159,8 @@
       <c r="F164">
         <v>0</v>
       </c>
-      <c r="G164">
-        <v>0</v>
+      <c r="G164" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.4">
@@ -4205,8 +4205,8 @@
       <c r="F166">
         <v>0</v>
       </c>
-      <c r="G166">
-        <v>0</v>
+      <c r="G166" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.4">
@@ -9949,11 +9949,11 @@
       <c r="D416" s="1">
         <v>1</v>
       </c>
-      <c r="E416">
-        <v>0</v>
-      </c>
-      <c r="F416">
-        <v>0</v>
+      <c r="E416" s="1">
+        <v>1</v>
+      </c>
+      <c r="F416" s="1">
+        <v>1</v>
       </c>
       <c r="G416" s="1">
         <v>1</v>
@@ -10225,8 +10225,8 @@
       <c r="D428">
         <v>0</v>
       </c>
-      <c r="E428">
-        <v>0</v>
+      <c r="E428" s="1">
+        <v>1</v>
       </c>
       <c r="F428">
         <v>0</v>
@@ -10320,11 +10320,11 @@
       <c r="E432">
         <v>0</v>
       </c>
-      <c r="F432">
-        <v>0</v>
-      </c>
-      <c r="G432" s="1">
-        <v>1</v>
+      <c r="F432" s="1">
+        <v>1</v>
+      </c>
+      <c r="G432">
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.4">
@@ -10415,8 +10415,8 @@
       <c r="F436">
         <v>0</v>
       </c>
-      <c r="G436">
-        <v>0</v>
+      <c r="G436" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.4">
@@ -10498,11 +10498,11 @@
       <c r="C440" s="2">
         <v>1</v>
       </c>
-      <c r="D440" s="1">
-        <v>1</v>
-      </c>
-      <c r="E440">
-        <v>0</v>
+      <c r="D440">
+        <v>0</v>
+      </c>
+      <c r="E440" s="1">
+        <v>1</v>
       </c>
       <c r="F440">
         <v>0</v>
@@ -10599,8 +10599,8 @@
       <c r="F444">
         <v>0</v>
       </c>
-      <c r="G444">
-        <v>0</v>
+      <c r="G444" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.4">
@@ -10688,11 +10688,11 @@
       <c r="E448">
         <v>0</v>
       </c>
-      <c r="F448">
-        <v>0</v>
-      </c>
-      <c r="G448" s="1">
-        <v>1</v>
+      <c r="F448" s="1">
+        <v>1</v>
+      </c>
+      <c r="G448">
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.4">
@@ -10869,14 +10869,14 @@
       <c r="D456">
         <v>0</v>
       </c>
-      <c r="E456" s="1">
-        <v>1</v>
+      <c r="E456">
+        <v>0</v>
       </c>
       <c r="F456">
         <v>0</v>
       </c>
-      <c r="G456">
-        <v>0</v>
+      <c r="G456" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.4">
@@ -10964,8 +10964,8 @@
       <c r="E460">
         <v>0</v>
       </c>
-      <c r="F460">
-        <v>0</v>
+      <c r="F460" s="1">
+        <v>1</v>
       </c>
       <c r="G460">
         <v>0</v>
@@ -11010,8 +11010,8 @@
       <c r="E462">
         <v>0</v>
       </c>
-      <c r="F462">
-        <v>0</v>
+      <c r="F462" s="1">
+        <v>1</v>
       </c>
       <c r="G462">
         <v>0</v>
@@ -11056,8 +11056,8 @@
       <c r="E464">
         <v>0</v>
       </c>
-      <c r="F464" s="1">
-        <v>1</v>
+      <c r="F464">
+        <v>0</v>
       </c>
       <c r="G464">
         <v>0</v>
@@ -11148,8 +11148,8 @@
       <c r="E468">
         <v>0</v>
       </c>
-      <c r="F468">
-        <v>0</v>
+      <c r="F468" s="1">
+        <v>1</v>
       </c>
       <c r="G468">
         <v>0</v>
@@ -11326,8 +11326,8 @@
       <c r="C476" s="2">
         <v>5</v>
       </c>
-      <c r="D476">
-        <v>0</v>
+      <c r="D476" s="1">
+        <v>1</v>
       </c>
       <c r="E476">
         <v>0</v>
@@ -11372,8 +11372,8 @@
       <c r="C478" s="2">
         <v>7</v>
       </c>
-      <c r="D478">
-        <v>0</v>
+      <c r="D478" s="1">
+        <v>1</v>
       </c>
       <c r="E478">
         <v>0</v>
@@ -11424,8 +11424,8 @@
       <c r="E480">
         <v>0</v>
       </c>
-      <c r="F480" s="1">
-        <v>1</v>
+      <c r="F480">
+        <v>0</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -11510,8 +11510,8 @@
       <c r="C484" s="2">
         <v>5</v>
       </c>
-      <c r="D484">
-        <v>0</v>
+      <c r="D484" s="1">
+        <v>1</v>
       </c>
       <c r="E484">
         <v>0</v>
@@ -11602,14 +11602,14 @@
       <c r="C488" s="2">
         <v>1</v>
       </c>
-      <c r="D488" s="1">
-        <v>1</v>
+      <c r="D488">
+        <v>0</v>
       </c>
       <c r="E488">
         <v>0</v>
       </c>
-      <c r="F488">
-        <v>0</v>
+      <c r="F488" s="1">
+        <v>1</v>
       </c>
       <c r="G488">
         <v>0</v>
@@ -11697,8 +11697,8 @@
       <c r="D492">
         <v>0</v>
       </c>
-      <c r="E492">
-        <v>0</v>
+      <c r="E492" s="1">
+        <v>1</v>
       </c>
       <c r="F492">
         <v>0</v>
@@ -11743,8 +11743,8 @@
       <c r="D494">
         <v>0</v>
       </c>
-      <c r="E494">
-        <v>0</v>
+      <c r="E494" s="1">
+        <v>1</v>
       </c>
       <c r="F494">
         <v>0</v>
@@ -11795,8 +11795,8 @@
       <c r="F496">
         <v>0</v>
       </c>
-      <c r="G496" s="1">
-        <v>1</v>
+      <c r="G496">
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.4">
@@ -11881,8 +11881,8 @@
       <c r="D500">
         <v>0</v>
       </c>
-      <c r="E500">
-        <v>0</v>
+      <c r="E500" s="1">
+        <v>1</v>
       </c>
       <c r="F500">
         <v>0</v>
@@ -12062,8 +12062,8 @@
       <c r="C508" s="2">
         <v>5</v>
       </c>
-      <c r="D508">
-        <v>0</v>
+      <c r="D508" s="1">
+        <v>1</v>
       </c>
       <c r="E508">
         <v>0</v>
@@ -12108,8 +12108,8 @@
       <c r="C510" s="2">
         <v>7</v>
       </c>
-      <c r="D510">
-        <v>0</v>
+      <c r="D510" s="1">
+        <v>1</v>
       </c>
       <c r="E510">
         <v>0</v>
@@ -12163,8 +12163,8 @@
       <c r="F512">
         <v>0</v>
       </c>
-      <c r="G512" s="1">
-        <v>1</v>
+      <c r="G512">
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.4">
@@ -12252,8 +12252,8 @@
       <c r="E516">
         <v>0</v>
       </c>
-      <c r="F516">
-        <v>0</v>
+      <c r="F516" s="1">
+        <v>1</v>
       </c>
       <c r="G516">
         <v>0</v>
@@ -12341,14 +12341,14 @@
       <c r="D520">
         <v>0</v>
       </c>
-      <c r="E520" s="1">
-        <v>1</v>
-      </c>
-      <c r="F520">
-        <v>0</v>
-      </c>
-      <c r="G520">
-        <v>0</v>
+      <c r="E520">
+        <v>0</v>
+      </c>
+      <c r="F520" s="1">
+        <v>1</v>
+      </c>
+      <c r="G520" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.4">
@@ -12439,8 +12439,8 @@
       <c r="F524">
         <v>0</v>
       </c>
-      <c r="G524">
-        <v>0</v>
+      <c r="G524" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.4">
@@ -12522,14 +12522,14 @@
       <c r="C528" s="2">
         <v>1</v>
       </c>
-      <c r="D528">
-        <v>0</v>
+      <c r="D528" s="1">
+        <v>1</v>
       </c>
       <c r="E528">
         <v>0</v>
       </c>
-      <c r="F528" s="1">
-        <v>1</v>
+      <c r="F528">
+        <v>0</v>
       </c>
       <c r="G528">
         <v>0</v>
@@ -12577,8 +12577,8 @@
       <c r="F530">
         <v>0</v>
       </c>
-      <c r="G530">
-        <v>0</v>
+      <c r="G530" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.4">
@@ -12660,8 +12660,8 @@
       <c r="C534" s="2">
         <v>7</v>
       </c>
-      <c r="D534">
-        <v>0</v>
+      <c r="D534" s="1">
+        <v>1</v>
       </c>
       <c r="E534">
         <v>0</v>
@@ -12709,14 +12709,14 @@
       <c r="D536">
         <v>0</v>
       </c>
-      <c r="E536" s="1">
-        <v>1</v>
-      </c>
-      <c r="F536">
-        <v>0</v>
-      </c>
-      <c r="G536">
-        <v>0</v>
+      <c r="E536">
+        <v>0</v>
+      </c>
+      <c r="F536" s="1">
+        <v>1</v>
+      </c>
+      <c r="G536" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.4">
@@ -12807,8 +12807,8 @@
       <c r="F540">
         <v>0</v>
       </c>
-      <c r="G540">
-        <v>0</v>
+      <c r="G540" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.4">
@@ -12890,14 +12890,14 @@
       <c r="C544" s="2">
         <v>1</v>
       </c>
-      <c r="D544">
-        <v>0</v>
+      <c r="D544" s="1">
+        <v>1</v>
       </c>
       <c r="E544">
         <v>0</v>
       </c>
-      <c r="F544" s="1">
-        <v>1</v>
+      <c r="F544">
+        <v>0</v>
       </c>
       <c r="G544">
         <v>0</v>
@@ -12945,8 +12945,8 @@
       <c r="F546">
         <v>0</v>
       </c>
-      <c r="G546">
-        <v>0</v>
+      <c r="G546" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.4">
@@ -13080,8 +13080,8 @@
       <c r="E552">
         <v>0</v>
       </c>
-      <c r="F552" s="1">
-        <v>1</v>
+      <c r="F552">
+        <v>0</v>
       </c>
       <c r="G552">
         <v>0</v>
@@ -13169,8 +13169,8 @@
       <c r="D556">
         <v>0</v>
       </c>
-      <c r="E556">
-        <v>0</v>
+      <c r="E556" s="1">
+        <v>1</v>
       </c>
       <c r="F556">
         <v>0</v>
@@ -13261,14 +13261,14 @@
       <c r="D560">
         <v>0</v>
       </c>
-      <c r="E560" s="1">
-        <v>1</v>
-      </c>
-      <c r="F560">
-        <v>0</v>
-      </c>
-      <c r="G560" s="1">
-        <v>1</v>
+      <c r="E560">
+        <v>0</v>
+      </c>
+      <c r="F560" s="1">
+        <v>1</v>
+      </c>
+      <c r="G560">
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.4">
@@ -13359,8 +13359,8 @@
       <c r="F564">
         <v>0</v>
       </c>
-      <c r="G564">
-        <v>0</v>
+      <c r="G564" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.4">
@@ -13442,14 +13442,14 @@
       <c r="C568" s="2">
         <v>1</v>
       </c>
-      <c r="D568" s="1">
-        <v>1</v>
-      </c>
-      <c r="E568">
-        <v>0</v>
-      </c>
-      <c r="F568" s="1">
-        <v>1</v>
+      <c r="D568">
+        <v>0</v>
+      </c>
+      <c r="E568" s="1">
+        <v>1</v>
+      </c>
+      <c r="F568">
+        <v>0</v>
       </c>
       <c r="G568">
         <v>0</v>
@@ -13543,8 +13543,8 @@
       <c r="F572">
         <v>0</v>
       </c>
-      <c r="G572">
-        <v>0</v>
+      <c r="G572" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.4">
@@ -13629,14 +13629,14 @@
       <c r="D576">
         <v>0</v>
       </c>
-      <c r="E576" s="1">
-        <v>1</v>
-      </c>
-      <c r="F576">
-        <v>0</v>
-      </c>
-      <c r="G576" s="1">
-        <v>1</v>
+      <c r="E576">
+        <v>0</v>
+      </c>
+      <c r="F576" s="1">
+        <v>1</v>
+      </c>
+      <c r="G576">
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.4">
@@ -13810,17 +13810,17 @@
       <c r="C584" s="2">
         <v>1</v>
       </c>
-      <c r="D584" s="1">
-        <v>1</v>
+      <c r="D584">
+        <v>0</v>
       </c>
       <c r="E584">
         <v>0</v>
       </c>
-      <c r="F584" s="1">
-        <v>1</v>
-      </c>
-      <c r="G584">
-        <v>0</v>
+      <c r="F584">
+        <v>0</v>
+      </c>
+      <c r="G584" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.4">
@@ -13908,8 +13908,8 @@
       <c r="E588">
         <v>0</v>
       </c>
-      <c r="F588">
-        <v>0</v>
+      <c r="F588" s="1">
+        <v>1</v>
       </c>
       <c r="G588">
         <v>0</v>
@@ -13954,8 +13954,8 @@
       <c r="E590">
         <v>0</v>
       </c>
-      <c r="F590">
-        <v>0</v>
+      <c r="F590" s="1">
+        <v>1</v>
       </c>
       <c r="G590">
         <v>0</v>
@@ -13997,14 +13997,14 @@
       <c r="D592">
         <v>0</v>
       </c>
-      <c r="E592" s="1">
-        <v>1</v>
+      <c r="E592">
+        <v>0</v>
       </c>
       <c r="F592">
         <v>0</v>
       </c>
-      <c r="G592" s="1">
-        <v>1</v>
+      <c r="G592">
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.4">
@@ -14092,8 +14092,8 @@
       <c r="E596">
         <v>0</v>
       </c>
-      <c r="F596">
-        <v>0</v>
+      <c r="F596" s="1">
+        <v>1</v>
       </c>
       <c r="G596">
         <v>0</v>
@@ -14178,14 +14178,14 @@
       <c r="C600" s="2">
         <v>1</v>
       </c>
-      <c r="D600" s="1">
-        <v>1</v>
-      </c>
-      <c r="E600">
-        <v>0</v>
-      </c>
-      <c r="F600" s="1">
-        <v>1</v>
+      <c r="D600">
+        <v>0</v>
+      </c>
+      <c r="E600" s="1">
+        <v>1</v>
+      </c>
+      <c r="F600">
+        <v>0</v>
       </c>
       <c r="G600">
         <v>0</v>
@@ -14270,8 +14270,8 @@
       <c r="C604" s="2">
         <v>5</v>
       </c>
-      <c r="D604">
-        <v>0</v>
+      <c r="D604" s="1">
+        <v>1</v>
       </c>
       <c r="E604">
         <v>0</v>
@@ -14316,8 +14316,8 @@
       <c r="C606" s="2">
         <v>7</v>
       </c>
-      <c r="D606">
-        <v>0</v>
+      <c r="D606" s="1">
+        <v>1</v>
       </c>
       <c r="E606">
         <v>0</v>
@@ -14365,14 +14365,14 @@
       <c r="D608">
         <v>0</v>
       </c>
-      <c r="E608" s="1">
-        <v>1</v>
+      <c r="E608">
+        <v>0</v>
       </c>
       <c r="F608">
         <v>0</v>
       </c>
-      <c r="G608" s="1">
-        <v>1</v>
+      <c r="G608">
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.4">
@@ -14454,8 +14454,8 @@
       <c r="C612" s="2">
         <v>5</v>
       </c>
-      <c r="D612">
-        <v>0</v>
+      <c r="D612" s="1">
+        <v>1</v>
       </c>
       <c r="E612">
         <v>0</v>
@@ -14552,8 +14552,8 @@
       <c r="E616">
         <v>0</v>
       </c>
-      <c r="F616" s="1">
-        <v>1</v>
+      <c r="F616">
+        <v>0</v>
       </c>
       <c r="G616">
         <v>0</v>
@@ -14644,8 +14644,8 @@
       <c r="E620">
         <v>0</v>
       </c>
-      <c r="F620" s="1">
-        <v>1</v>
+      <c r="F620">
+        <v>0</v>
       </c>
       <c r="G620">
         <v>0</v>
@@ -14730,8 +14730,8 @@
       <c r="C624" s="2">
         <v>1</v>
       </c>
-      <c r="D624">
-        <v>0</v>
+      <c r="D624" s="1">
+        <v>1</v>
       </c>
       <c r="E624" s="1">
         <v>1</v>
@@ -14739,8 +14739,8 @@
       <c r="F624">
         <v>0</v>
       </c>
-      <c r="G624" s="1">
-        <v>1</v>
+      <c r="G624">
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.4">
@@ -14822,8 +14822,8 @@
       <c r="C628" s="2">
         <v>5</v>
       </c>
-      <c r="D628">
-        <v>0</v>
+      <c r="D628" s="1">
+        <v>1</v>
       </c>
       <c r="E628" s="1">
         <v>1</v>
@@ -14831,8 +14831,8 @@
       <c r="F628">
         <v>0</v>
       </c>
-      <c r="G628" s="1">
-        <v>1</v>
+      <c r="G628">
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.4">
@@ -14917,8 +14917,8 @@
       <c r="D632" s="1">
         <v>1</v>
       </c>
-      <c r="E632">
-        <v>0</v>
+      <c r="E632" s="1">
+        <v>1</v>
       </c>
       <c r="F632" s="1">
         <v>1</v>
@@ -15009,8 +15009,8 @@
       <c r="D636" s="1">
         <v>1</v>
       </c>
-      <c r="E636">
-        <v>0</v>
+      <c r="E636" s="1">
+        <v>1</v>
       </c>
       <c r="F636" s="1">
         <v>1</v>
@@ -15098,14 +15098,14 @@
       <c r="C640" s="2">
         <v>1</v>
       </c>
-      <c r="D640">
-        <v>0</v>
+      <c r="D640" s="1">
+        <v>1</v>
       </c>
       <c r="E640" s="1">
         <v>1</v>
       </c>
-      <c r="F640">
-        <v>0</v>
+      <c r="F640" s="1">
+        <v>1</v>
       </c>
       <c r="G640" s="1">
         <v>1</v>
@@ -15196,11 +15196,11 @@
       <c r="E644" s="1">
         <v>1</v>
       </c>
-      <c r="F644">
-        <v>0</v>
-      </c>
-      <c r="G644" s="1">
-        <v>1</v>
+      <c r="F644" s="1">
+        <v>1</v>
+      </c>
+      <c r="G644">
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.4">
@@ -15834,11 +15834,11 @@
       <c r="C672" s="2">
         <v>1</v>
       </c>
-      <c r="D672">
-        <v>0</v>
-      </c>
-      <c r="E672">
-        <v>0</v>
+      <c r="D672" s="1">
+        <v>1</v>
+      </c>
+      <c r="E672" s="1">
+        <v>1</v>
       </c>
       <c r="F672">
         <v>0</v>
@@ -16208,11 +16208,11 @@
       <c r="E688">
         <v>0</v>
       </c>
-      <c r="F688">
-        <v>0</v>
-      </c>
-      <c r="G688">
-        <v>0</v>
+      <c r="F688" s="1">
+        <v>1</v>
+      </c>
+      <c r="G688" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.4">
@@ -16576,11 +16576,11 @@
       <c r="E704">
         <v>0</v>
       </c>
-      <c r="F704">
-        <v>0</v>
-      </c>
-      <c r="G704">
-        <v>0</v>
+      <c r="F704" s="1">
+        <v>1</v>
+      </c>
+      <c r="G704" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.4">
@@ -17680,11 +17680,11 @@
       <c r="E752">
         <v>0</v>
       </c>
-      <c r="F752">
-        <v>0</v>
-      </c>
-      <c r="G752">
-        <v>0</v>
+      <c r="F752" s="1">
+        <v>1</v>
+      </c>
+      <c r="G752" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.4">
@@ -17841,8 +17841,8 @@
       <c r="E759">
         <v>0</v>
       </c>
-      <c r="F759">
-        <v>0</v>
+      <c r="F759" s="1">
+        <v>1</v>
       </c>
       <c r="G759">
         <v>0</v>
@@ -19152,11 +19152,11 @@
       <c r="E816">
         <v>0</v>
       </c>
-      <c r="F816">
-        <v>0</v>
-      </c>
-      <c r="G816">
-        <v>0</v>
+      <c r="F816" s="1">
+        <v>1</v>
+      </c>
+      <c r="G816" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.4">
@@ -19520,11 +19520,11 @@
       <c r="E832">
         <v>0</v>
       </c>
-      <c r="F832">
-        <v>0</v>
-      </c>
-      <c r="G832">
-        <v>0</v>
+      <c r="F832" s="1">
+        <v>1</v>
+      </c>
+      <c r="G832" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.4">
@@ -20624,11 +20624,11 @@
       <c r="E880">
         <v>0</v>
       </c>
-      <c r="F880">
-        <v>0</v>
-      </c>
-      <c r="G880">
-        <v>0</v>
+      <c r="F880" s="1">
+        <v>1</v>
+      </c>
+      <c r="G880" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:7" x14ac:dyDescent="0.4">
@@ -20785,8 +20785,8 @@
       <c r="E887">
         <v>0</v>
       </c>
-      <c r="F887">
-        <v>0</v>
+      <c r="F887" s="1">
+        <v>1</v>
       </c>
       <c r="G887">
         <v>0</v>
@@ -21268,11 +21268,11 @@
       <c r="E908">
         <v>0</v>
       </c>
-      <c r="F908" s="1">
-        <v>1</v>
-      </c>
-      <c r="G908">
-        <v>0</v>
+      <c r="F908">
+        <v>0</v>
+      </c>
+      <c r="G908" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:7" x14ac:dyDescent="0.4">
@@ -21452,8 +21452,8 @@
       <c r="E916">
         <v>0</v>
       </c>
-      <c r="F916">
-        <v>0</v>
+      <c r="F916" s="1">
+        <v>1</v>
       </c>
       <c r="G916">
         <v>0</v>
@@ -21633,11 +21633,11 @@
       <c r="D924">
         <v>0</v>
       </c>
-      <c r="E924">
-        <v>0</v>
-      </c>
-      <c r="F924" s="1">
-        <v>1</v>
+      <c r="E924" s="1">
+        <v>1</v>
+      </c>
+      <c r="F924">
+        <v>0</v>
       </c>
       <c r="G924">
         <v>0</v>
@@ -21731,8 +21731,8 @@
       <c r="F928">
         <v>0</v>
       </c>
-      <c r="G928">
-        <v>0</v>
+      <c r="G928" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:7" x14ac:dyDescent="0.4">
@@ -21771,8 +21771,8 @@
       <c r="D930">
         <v>0</v>
       </c>
-      <c r="E930">
-        <v>0</v>
+      <c r="E930" s="1">
+        <v>1</v>
       </c>
       <c r="F930">
         <v>0</v>
@@ -21814,8 +21814,8 @@
       <c r="C932" s="2">
         <v>5</v>
       </c>
-      <c r="D932">
-        <v>0</v>
+      <c r="D932" s="1">
+        <v>1</v>
       </c>
       <c r="E932">
         <v>0</v>
@@ -21955,11 +21955,11 @@
       <c r="D938">
         <v>0</v>
       </c>
-      <c r="E938">
-        <v>0</v>
-      </c>
-      <c r="F938" s="1">
-        <v>1</v>
+      <c r="E938" s="1">
+        <v>1</v>
+      </c>
+      <c r="F938">
+        <v>0</v>
       </c>
       <c r="G938">
         <v>0</v>
@@ -22047,11 +22047,11 @@
       <c r="D942">
         <v>0</v>
       </c>
-      <c r="E942">
-        <v>0</v>
-      </c>
-      <c r="F942" s="1">
-        <v>1</v>
+      <c r="E942" s="1">
+        <v>1</v>
+      </c>
+      <c r="F942">
+        <v>0</v>
       </c>
       <c r="G942">
         <v>0</v>
@@ -22507,11 +22507,11 @@
       <c r="D962">
         <v>0</v>
       </c>
-      <c r="E962">
-        <v>0</v>
-      </c>
-      <c r="F962" s="1">
-        <v>1</v>
+      <c r="E962" s="1">
+        <v>1</v>
+      </c>
+      <c r="F962">
+        <v>0</v>
       </c>
       <c r="G962">
         <v>0</v>
@@ -22648,8 +22648,8 @@
       <c r="E968">
         <v>0</v>
       </c>
-      <c r="F968" s="1">
-        <v>1</v>
+      <c r="F968">
+        <v>0</v>
       </c>
       <c r="G968">
         <v>0</v>
@@ -22786,11 +22786,11 @@
       <c r="E974">
         <v>0</v>
       </c>
-      <c r="F974">
-        <v>0</v>
-      </c>
-      <c r="G974" s="1">
-        <v>1</v>
+      <c r="F974" s="1">
+        <v>1</v>
+      </c>
+      <c r="G974">
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:7" x14ac:dyDescent="0.4">
@@ -22875,14 +22875,14 @@
       <c r="D978">
         <v>0</v>
       </c>
-      <c r="E978">
-        <v>0</v>
+      <c r="E978" s="1">
+        <v>1</v>
       </c>
       <c r="F978">
         <v>0</v>
       </c>
-      <c r="G978" s="1">
-        <v>1</v>
+      <c r="G978">
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:7" x14ac:dyDescent="0.4">
@@ -22967,14 +22967,14 @@
       <c r="D982">
         <v>0</v>
       </c>
-      <c r="E982">
-        <v>0</v>
+      <c r="E982" s="1">
+        <v>1</v>
       </c>
       <c r="F982">
         <v>0</v>
       </c>
-      <c r="G982" s="1">
-        <v>1</v>
+      <c r="G982">
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:7" x14ac:dyDescent="0.4">
@@ -23059,14 +23059,14 @@
       <c r="D986">
         <v>0</v>
       </c>
-      <c r="E986">
-        <v>0</v>
+      <c r="E986" s="1">
+        <v>1</v>
       </c>
       <c r="F986">
         <v>0</v>
       </c>
-      <c r="G986" s="1">
-        <v>1</v>
+      <c r="G986">
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:7" x14ac:dyDescent="0.4">
@@ -23151,14 +23151,14 @@
       <c r="D990">
         <v>0</v>
       </c>
-      <c r="E990">
-        <v>0</v>
+      <c r="E990" s="1">
+        <v>1</v>
       </c>
       <c r="F990">
         <v>0</v>
       </c>
-      <c r="G990" s="1">
-        <v>1</v>
+      <c r="G990">
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:7" x14ac:dyDescent="0.4">
@@ -24675,8 +24675,8 @@
       <c r="F1056" s="1">
         <v>1</v>
       </c>
-      <c r="G1056">
-        <v>0</v>
+      <c r="G1056" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:7" x14ac:dyDescent="0.4">
@@ -24899,11 +24899,11 @@
       <c r="D1066">
         <v>0</v>
       </c>
-      <c r="E1066">
-        <v>0</v>
-      </c>
-      <c r="F1066" s="1">
-        <v>1</v>
+      <c r="E1066" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1066">
+        <v>0</v>
       </c>
       <c r="G1066">
         <v>0</v>
@@ -24991,11 +24991,11 @@
       <c r="D1070">
         <v>0</v>
       </c>
-      <c r="E1070">
-        <v>0</v>
-      </c>
-      <c r="F1070" s="1">
-        <v>1</v>
+      <c r="E1070" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1070">
+        <v>0</v>
       </c>
       <c r="G1070">
         <v>0</v>
@@ -25451,11 +25451,11 @@
       <c r="D1090">
         <v>0</v>
       </c>
-      <c r="E1090">
-        <v>0</v>
-      </c>
-      <c r="F1090" s="1">
-        <v>1</v>
+      <c r="E1090" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1090">
+        <v>0</v>
       </c>
       <c r="G1090">
         <v>0</v>
@@ -25592,8 +25592,8 @@
       <c r="E1096">
         <v>0</v>
       </c>
-      <c r="F1096" s="1">
-        <v>1</v>
+      <c r="F1096">
+        <v>0</v>
       </c>
       <c r="G1096">
         <v>0</v>
@@ -25730,11 +25730,11 @@
       <c r="E1102">
         <v>0</v>
       </c>
-      <c r="F1102">
-        <v>0</v>
-      </c>
-      <c r="G1102" s="1">
-        <v>1</v>
+      <c r="F1102" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1102">
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:7" x14ac:dyDescent="0.4">
@@ -25819,14 +25819,14 @@
       <c r="D1106">
         <v>0</v>
       </c>
-      <c r="E1106">
-        <v>0</v>
+      <c r="E1106" s="1">
+        <v>1</v>
       </c>
       <c r="F1106">
         <v>0</v>
       </c>
-      <c r="G1106" s="1">
-        <v>1</v>
+      <c r="G1106">
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:7" x14ac:dyDescent="0.4">
@@ -25911,14 +25911,14 @@
       <c r="D1110">
         <v>0</v>
       </c>
-      <c r="E1110">
-        <v>0</v>
+      <c r="E1110" s="1">
+        <v>1</v>
       </c>
       <c r="F1110">
         <v>0</v>
       </c>
-      <c r="G1110" s="1">
-        <v>1</v>
+      <c r="G1110">
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:7" x14ac:dyDescent="0.4">
@@ -26003,14 +26003,14 @@
       <c r="D1114">
         <v>0</v>
       </c>
-      <c r="E1114">
-        <v>0</v>
+      <c r="E1114" s="1">
+        <v>1</v>
       </c>
       <c r="F1114">
         <v>0</v>
       </c>
-      <c r="G1114" s="1">
-        <v>1</v>
+      <c r="G1114">
+        <v>0</v>
       </c>
     </row>
     <row r="1115" spans="1:7" x14ac:dyDescent="0.4">
@@ -26095,14 +26095,14 @@
       <c r="D1118">
         <v>0</v>
       </c>
-      <c r="E1118">
-        <v>0</v>
+      <c r="E1118" s="1">
+        <v>1</v>
       </c>
       <c r="F1118">
         <v>0</v>
       </c>
-      <c r="G1118" s="1">
-        <v>1</v>
+      <c r="G1118">
+        <v>0</v>
       </c>
     </row>
     <row r="1119" spans="1:7" x14ac:dyDescent="0.4">
@@ -27619,8 +27619,8 @@
       <c r="F1184" s="1">
         <v>1</v>
       </c>
-      <c r="G1184">
-        <v>0</v>
+      <c r="G1184" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="1185" spans="1:7" x14ac:dyDescent="0.4">
